--- a/FUN-IT/ตารางคำนวณเกรด.xlsx
+++ b/FUN-IT/ตารางคำนวณเกรด.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_MyUniversityCode\FUN-IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DF7652-AA14-4692-B1A6-0EDED87D628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95F1D3-CA1C-4189-9E89-6471604B2395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44528597-0FFD-4645-8682-BAF733EACCE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44528597-0FFD-4645-8682-BAF733EACCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="รหัสนักศึกษา" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
   <si>
     <t>รหัสนักศึกษา</t>
   </si>
@@ -151,14 +154,51 @@
   </si>
   <si>
     <t>คะแนน ประจำภาค</t>
+  </si>
+  <si>
+    <t>นาย สหรัถ</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>รหัส</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>FUN-IT</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Aerobic</t>
+  </si>
+  <si>
+    <t>System &amp; Creative</t>
+  </si>
+  <si>
+    <t>สมชาย</t>
+  </si>
+  <si>
+    <t>สมสกุล</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0########"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0########"/>
+    <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -184,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -221,8 +255,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,22 +291,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -269,33 +347,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
-    <cellStyle name="60% - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -632,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD5059-B43B-425C-B8B3-9A3DC455EFCE}">
   <dimension ref="B2:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,15 +809,15 @@
         <v>65</v>
       </c>
       <c r="F6" s="12" t="str">
-        <f>IF(E6&gt;=V$6,X$6,IF(E6&gt;=V$7,X$7,IF(E6&gt;=V$8,X$8,IF(E6&gt;=V$9,X$9,IF(E6&gt;=V$10,X$10,IF(E6&gt;=V$11,X$11,IF(E6&gt;=V$12,X$12,IF(E6&gt;=V$13,X$13))))))))</f>
-        <v>C+</v>
+        <f>IF(E6="","",IF(E6&gt;=V$6,X$6,IF(E7&gt;=V$7,X$7,IF(E7&gt;=V$8,X$8,IF(E7&gt;=V$9,X$9,IF(E7&gt;=V$10,X$10,IF(E7&gt;=V$11,X$11,IF(E7&gt;=V$12,X$12,IF(E7&gt;=V$13,X$13)))))))))</f>
+        <v>B+</v>
       </c>
       <c r="G6" s="10">
         <f>IF(E6&gt;=V$6,W$6,IF(E6&gt;=V$7,W$7,IF(E6&gt;=V$8,W$8,IF(E6&gt;=V$9,W$9,IF(E6&gt;=V$10,W$10,IF(E6&gt;=V$11,W$11,IF(E6&gt;=V$12,W$12,IF(E6&gt;=V$13,W$13))))))))</f>
         <v>2.5</v>
       </c>
       <c r="H6" s="10">
-        <f>D6*G6</f>
+        <f t="shared" ref="H6:H12" si="0">D6*G6</f>
         <v>7.5</v>
       </c>
       <c r="U6" s="8" t="s">
@@ -757,15 +847,15 @@
         <v>80</v>
       </c>
       <c r="F7" s="12" t="str">
-        <f>IF(E7&gt;=V$6,X$6,IF(E7&gt;=V$7,X$7,IF(E7&gt;=V$8,X$8,IF(E7&gt;=V$9,X$9,IF(E7&gt;=V$10,X$10,IF(E7&gt;=V$11,X$11,IF(E7&gt;=V$12,X$12,IF(E7&gt;=V$13,X$13))))))))</f>
+        <f t="shared" ref="F7:F12" si="1">IF(E7&gt;=V$6,X$6,IF(E8&gt;=V$7,X$7,IF(E8&gt;=V$8,X$8,IF(E8&gt;=V$9,X$9,IF(E8&gt;=V$10,X$10,IF(E8&gt;=V$11,X$11,IF(E8&gt;=V$12,X$12,IF(E8&gt;=V$13,X$13))))))))</f>
         <v>A</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" ref="G7:G12" si="0">IF(E7&gt;=V$6,W$6,IF(E7&gt;=V$7,W$7,IF(E7&gt;=V$8,W$8,IF(E7&gt;=V$9,W$9,IF(E7&gt;=V$10,W$10,IF(E7&gt;=V$11,W$11,IF(E7&gt;=V$12,W$12,IF(E7&gt;=V$13,W$13))))))))</f>
+        <f t="shared" ref="G7:G12" si="2">IF(E7&gt;=V$6,W$6,IF(E7&gt;=V$7,W$7,IF(E7&gt;=V$8,W$8,IF(E7&gt;=V$9,W$9,IF(E7&gt;=V$10,W$10,IF(E7&gt;=V$11,W$11,IF(E7&gt;=V$12,W$12,IF(E7&gt;=V$13,W$13))))))))</f>
         <v>4</v>
       </c>
       <c r="H7" s="10">
-        <f>D7*G7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="U7" s="8" t="s">
@@ -795,15 +885,15 @@
         <v>80</v>
       </c>
       <c r="F8" s="12" t="str">
-        <f>IF(E8&gt;=V$6,X$6,IF(E8&gt;=V$7,X$7,IF(E8&gt;=V$8,X$8,IF(E8&gt;=V$9,X$9,IF(E8&gt;=V$10,X$10,IF(E8&gt;=V$11,X$11,IF(E8&gt;=V$12,X$12,IF(E8&gt;=V$13,X$13))))))))</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="10">
-        <f>D8*G8</f>
         <v>12</v>
       </c>
       <c r="U8" s="8" t="s">
@@ -833,15 +923,15 @@
         <v>80</v>
       </c>
       <c r="F9" s="12" t="str">
-        <f>IF(E9&gt;=V$6,X$6,IF(E9&gt;=V$7,X$7,IF(E9&gt;=V$8,X$8,IF(E9&gt;=V$9,X$9,IF(E9&gt;=V$10,X$10,IF(E9&gt;=V$11,X$11,IF(E9&gt;=V$12,X$12,IF(E9&gt;=V$13,X$13))))))))</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="G9" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="10">
-        <f>D9*G9</f>
         <v>12</v>
       </c>
       <c r="U9" s="8" t="s">
@@ -871,15 +961,15 @@
         <v>65</v>
       </c>
       <c r="F10" s="12" t="str">
-        <f>IF(E10&gt;=V$6,X$6,IF(E10&gt;=V$7,X$7,IF(E10&gt;=V$8,X$8,IF(E10&gt;=V$9,X$9,IF(E10&gt;=V$10,X$10,IF(E10&gt;=V$11,X$11,IF(E10&gt;=V$12,X$12,IF(E10&gt;=V$13,X$13))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="1"/>
+        <v>B+</v>
       </c>
       <c r="G10" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="H10" s="10">
-        <f>D10*G10</f>
         <v>7.5</v>
       </c>
       <c r="U10" s="8" t="s">
@@ -909,15 +999,15 @@
         <v>80</v>
       </c>
       <c r="F11" s="12" t="str">
-        <f>IF(E11&gt;=V$6,X$6,IF(E11&gt;=V$7,X$7,IF(E11&gt;=V$8,X$8,IF(E11&gt;=V$9,X$9,IF(E11&gt;=V$10,X$10,IF(E11&gt;=V$11,X$11,IF(E11&gt;=V$12,X$12,IF(E11&gt;=V$13,X$13))))))))</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H11" s="10">
-        <f>D11*G11</f>
         <v>4</v>
       </c>
       <c r="U11" s="8" t="s">
@@ -947,15 +1037,15 @@
         <v>65</v>
       </c>
       <c r="F12" s="12" t="str">
-        <f>IF(E12&gt;=V$6,X$6,IF(E12&gt;=V$7,X$7,IF(E12&gt;=V$8,X$8,IF(E12&gt;=V$9,X$9,IF(E12&gt;=V$10,X$10,IF(E12&gt;=V$11,X$11,IF(E12&gt;=V$12,X$12,IF(E12&gt;=V$13,X$13))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="1"/>
+        <v>F</v>
       </c>
       <c r="G12" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="H12" s="10">
-        <f>D12*G12</f>
         <v>7.5</v>
       </c>
       <c r="U12" s="8" t="s">
@@ -1035,14 +1125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="17" t="str">
-        <f>IF(D16&gt;=3,U18,IF(D16&gt;=1.25,U17,IF(D16&gt;=0,U16,N/A)))</f>
-        <v>ได้รับทุน</v>
-      </c>
+    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U18" t="s">
         <v>35</v>
       </c>
@@ -1073,4 +1156,1080 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133660A4-B366-4A3B-B10B-3C7436FC31D3}">
+  <dimension ref="B1:C103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4027EED-65F6-417D-93C4-E20785557550}">
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7">
+        <v>70</v>
+      </c>
+      <c r="J4" s="7">
+        <v>80</v>
+      </c>
+      <c r="K4" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7">
+        <v>80</v>
+      </c>
+      <c r="F5" s="7">
+        <v>80</v>
+      </c>
+      <c r="G5" s="7">
+        <v>80</v>
+      </c>
+      <c r="H5" s="7">
+        <v>80</v>
+      </c>
+      <c r="I5" s="7">
+        <v>80</v>
+      </c>
+      <c r="J5" s="7">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B29A354-F2B4-42B7-8C11-CD39AED027C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FUN-IT/ตารางคำนวณเกรด.xlsx
+++ b/FUN-IT/ตารางคำนวณเกรด.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_MyUniversityCode\FUN-IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95F1D3-CA1C-4189-9E89-6471604B2395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7CB76C-F2B1-4780-BE1A-1C7AFD2C9377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44528597-0FFD-4645-8682-BAF733EACCE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44528597-0FFD-4645-8682-BAF733EACCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="รหัสนักศึกษา" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
   <si>
     <t>รหัสนักศึกษา</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>สมสกุล</t>
+  </si>
+  <si>
+    <t>รหัสวิชา</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0########"/>
-    <numFmt numFmtId="167" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -366,8 +369,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,8 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD5059-B43B-425C-B8B3-9A3DC455EFCE}">
   <dimension ref="B2:X18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +765,7 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -958,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -966,11 +969,11 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>28</v>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="H13" s="9">
         <f>SUM(H6:H12)</f>
-        <v>62.5</v>
+        <v>64</v>
       </c>
       <c r="U13" s="8" t="s">
         <v>31</v>
@@ -1104,7 +1107,7 @@
       </c>
       <c r="D15" s="15">
         <f>$H$13/$D$13</f>
-        <v>3.2894736842105261</v>
+        <v>3.3684210526315788</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>23</v>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="D16" s="15">
         <f>$H$13/$D$13</f>
-        <v>3.2894736842105261</v>
+        <v>3.3684210526315788</v>
       </c>
       <c r="U16" t="s">
         <v>36</v>
@@ -1993,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4027EED-65F6-417D-93C4-E20785557550}">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2011,51 +2014,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2087,7 +2090,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
